--- a/homework/56.xlsx
+++ b/homework/56.xlsx
@@ -3,20 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C63BF9-5AE3-4C88-ABEE-1CA468D1C830}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35309AFF-4E33-40B1-9C14-64A411F13D6F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="2775" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6525" yWindow="285" windowWidth="15330" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>to</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +42,70 @@
   </si>
   <si>
     <t>for (on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(on)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>going(went) jogging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>went(go) shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go(going) skiing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>going(goes) swimming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to university</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skiing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to Portugal,on holiday (on holiday , to Portugal)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -577,7 +640,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -595,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -604,34 +667,56 @@
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="6">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="6">
+        <v>4</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="6">
+        <v>5</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
@@ -639,50 +724,84 @@
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="6">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="B28" s="6">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="6">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="6">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="6">
+        <v>8</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="6">
+        <v>9</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
